--- a/medicine/Psychotrope/Haschich/Haschich.xlsx
+++ b/medicine/Psychotrope/Haschich/Haschich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le haschich Écouter, aussi transcrit hachich, haschisch ou même hachisch, est le nom donné couramment à la résine de cannabis. Il est issu d'une extraction de la résine des fleurs femelles de cannabis.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines sources indiquent que l'utilisation du haschich (en arabe : حَشيش [ḥašīš], « foin ; herbe ») a donné lieu au mot assassin[1],[2], bien que cela soit contesté ailleurs (Daftary 2010) comme un mensonge fantastique fondé sur l'ignorance du milieu spécifique des Croisades chrétiennes médiévales[3]. Quoi qu'il en soit, le consensus scientifique général est que le haschich affecte négativement le fonctionnement cognitif qui soutiendrait la sujétion, le comportement d'assassinat pourrait donc être lié à l'utilisation du haschisch[4].
-Au Moyen Âge, une secte chiite du Moyen-Orient fait parler d'elle. Celle des Hashâchines ou Nizârites : la rumeur prétend que les membres de cette secte sont conditionnés par leur chef à tuer sous l'emprise du haschich, d'où leur nom. Par la suite en Italie au XIIIe siècle, le mot est repris en assassino pour désigner soit les chefs musulmans combattant les chrétiens, soit les tueurs à gages, enfin en France au XVIe siècle il prend la forme assassin et désigne les tueurs à gages, avant de prendre le sens plus large de meurtrier[5]. Cette hypothèse, qui a inspiré bien des auteurs, de Marco Polo à Smolderen, scénariste de la bande dessinée Gipsy, est contestée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines sources indiquent que l'utilisation du haschich (en arabe : حَشيش [ḥašīš], « foin ; herbe ») a donné lieu au mot assassin bien que cela soit contesté ailleurs (Daftary 2010) comme un mensonge fantastique fondé sur l'ignorance du milieu spécifique des Croisades chrétiennes médiévales. Quoi qu'il en soit, le consensus scientifique général est que le haschich affecte négativement le fonctionnement cognitif qui soutiendrait la sujétion, le comportement d'assassinat pourrait donc être lié à l'utilisation du haschisch.
+Au Moyen Âge, une secte chiite du Moyen-Orient fait parler d'elle. Celle des Hashâchines ou Nizârites : la rumeur prétend que les membres de cette secte sont conditionnés par leur chef à tuer sous l'emprise du haschich, d'où leur nom. Par la suite en Italie au XIIIe siècle, le mot est repris en assassino pour désigner soit les chefs musulmans combattant les chrétiens, soit les tueurs à gages, enfin en France au XVIe siècle il prend la forme assassin et désigne les tueurs à gages, avant de prendre le sens plus large de meurtrier. Cette hypothèse, qui a inspiré bien des auteurs, de Marco Polo à Smolderen, scénariste de la bande dessinée Gipsy, est contestée.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le haschich est un produit manufacturé issu du chanvre appelé également par son nom latin cannabis.
 Depuis l'Antiquité, certains êtres humains ingèrent du haschich.
-Au début du XIXe siècle, les scientifiques qui accompagnent Napoléon dans sa campagne d'Égypte, s'intéressent au haschich. Le psychiatre Jacques Moreau de Tours tente d'élaborer des traitements pour ses malades et publie Du Haschich et de l'aliénation mentale[6]. Notamment associé au potassium, il a été régulièrement utilisé comme médicament psychotrope dans les asiles d'aliénés français comme le relève le « Rapport sur le Service des Aliénés» de 1874 destiné au Ministre de l'Intérieur[7].
-Ce psychotrope connaît aussi une certaine vogue dans les milieux artistiques parisiens. Des médecins, des artistes et écrivains se réunissent pour l'expérimenter, dans un hôtel particulier parisien au 17 du quai d'Anjou. C'est le Club des Hashischins, qui fut fondé en 1845 par le médecin Moreau de Tours. La mode est alors à la consommation sous forme de dawamesk, c'est-à-dire une confiture orientale confectionnée à partir de l'extrait gras des inflorescences. Plusieurs œuvres littéraires témoignent de ces séances : Club des Hashischins[8] de Théophile Gautier est l'une d'elles, Le Comte de Monte-Cristo d'Alexandre Dumas mentionne plusieurs fois la consommation de dawamesk. Arthur Rimbaud ou Paul Verlaine sont également réputés pour avoir été des consommateurs invétérés, ils associaient de plus la consommation du haschich avec celle de l'absinthe. Charles Baudelaire lui a consacré un opuscule (Le hachish dans Du vin et du hachisch) et les cinq premiers poèmes des Paradis artificiels. Il est à noter cependant que le « hachisch » décrit par Baudelaire pourrait désigner une drogue assez différente de celle que nous connaissons aujourd'hui, puisqu'elle se compose d'après lui « d'une décoction de chanvre indien, de beurre et d'une petite quantité d'opium »[9].
+Au début du XIXe siècle, les scientifiques qui accompagnent Napoléon dans sa campagne d'Égypte, s'intéressent au haschich. Le psychiatre Jacques Moreau de Tours tente d'élaborer des traitements pour ses malades et publie Du Haschich et de l'aliénation mentale. Notamment associé au potassium, il a été régulièrement utilisé comme médicament psychotrope dans les asiles d'aliénés français comme le relève le « Rapport sur le Service des Aliénés» de 1874 destiné au Ministre de l'Intérieur.
+Ce psychotrope connaît aussi une certaine vogue dans les milieux artistiques parisiens. Des médecins, des artistes et écrivains se réunissent pour l'expérimenter, dans un hôtel particulier parisien au 17 du quai d'Anjou. C'est le Club des Hashischins, qui fut fondé en 1845 par le médecin Moreau de Tours. La mode est alors à la consommation sous forme de dawamesk, c'est-à-dire une confiture orientale confectionnée à partir de l'extrait gras des inflorescences. Plusieurs œuvres littéraires témoignent de ces séances : Club des Hashischins de Théophile Gautier est l'une d'elles, Le Comte de Monte-Cristo d'Alexandre Dumas mentionne plusieurs fois la consommation de dawamesk. Arthur Rimbaud ou Paul Verlaine sont également réputés pour avoir été des consommateurs invétérés, ils associaient de plus la consommation du haschich avec celle de l'absinthe. Charles Baudelaire lui a consacré un opuscule (Le hachish dans Du vin et du hachisch) et les cinq premiers poèmes des Paradis artificiels. Il est à noter cependant que le « hachisch » décrit par Baudelaire pourrait désigner une drogue assez différente de celle que nous connaissons aujourd'hui, puisqu'elle se compose d'après lui « d'une décoction de chanvre indien, de beurre et d'une petite quantité d'opium ».
 Le haschich est, depuis sa banalisation de la deuxième moitié du XXe siècle, surtout fumé, sous diverses formes telles que joint, pipe à eau (bang), pipe en terre cuite en métal ou en bois, chalice, à l'aide d'une cigarette et d'une bouteille, à l'aide de couteau, etc.
 </t>
         </is>
@@ -580,13 +596,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fabrication
-Le Maroc est le premier producteur mondial de résine de cannabis. Cette activité génère 12 milliards de dollars[10].
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Maroc est le premier producteur mondial de résine de cannabis. Cette activité génère 12 milliards de dollars.
 La résine de cannabis est issue des glandes sécrétoires des feuilles et fleurs que porte la plante femelle (bien qu'ils contiennent du THC, les plants mâles ne produisent pas de résine).
 Diverses techniques d'élaboration du haschich sont employées dans le monde. La plus répandue, utilisée dans le monde arabe, consiste à faire sécher les plantes, puis à les tamiser afin de séparer les gouttes de résine de la matière végétale. Selon la finesse du tamis, plusieurs qualités sont obtenues.
-Henry de Monfreid, dans La Croisière du haschich[11], décrit de manière précise et littéraire cette méthode qu'il a eu l'occasion d'observer dans une ferme grecque, où il s'était rendu pour acquérir du haschich destiné à la contrebande vers l'Égypte.
+Henry de Monfreid, dans La Croisière du haschich, décrit de manière précise et littéraire cette méthode qu'il a eu l'occasion d'observer dans une ferme grecque, où il s'était rendu pour acquérir du haschich destiné à la contrebande vers l'Égypte.
 La résine peut être ensuite stockée afin de la bonifier (en Afghanistan, où la résine est conservée dans des sacs en peaux de chèvre, le stockage avant pressage peut aller jusqu'à dix ans). La résine poudreuse est ensuite pressée, après chauffage.
-Au Maroc, des presses hydrauliques sont utilisées pour produire des plaquettes dures, de couleur jaunâtre/verte/marron (pour l'exportation uniquement). Une anecdote révèle que c'est pour boycotter les cigarettes françaises (en vente au Maroc pendant la période du Protectorat français du Maroc) que le roi Mohammed V donna par décret royal, le droit de planter du kif aux cultivateurs dans la région de Ketama (par ailleurs cultivé depuis plus de 500 ans dans la région). Il faudra attendre le début des années 1970 pour voir arriver dans cette région des hippies, venus fumer le kif marocain. Ils montrèrent aux cultivateurs ketamis les techniques apprises en Afghanistan et au Liban pour faire sécher les plantes, séparer et compresser la résine[12].
+Au Maroc, des presses hydrauliques sont utilisées pour produire des plaquettes dures, de couleur jaunâtre/verte/marron (pour l'exportation uniquement). Une anecdote révèle que c'est pour boycotter les cigarettes françaises (en vente au Maroc pendant la période du Protectorat français du Maroc) que le roi Mohammed V donna par décret royal, le droit de planter du kif aux cultivateurs dans la région de Ketama (par ailleurs cultivé depuis plus de 500 ans dans la région). Il faudra attendre le début des années 1970 pour voir arriver dans cette région des hippies, venus fumer le kif marocain. Ils montrèrent aux cultivateurs ketamis les techniques apprises en Afghanistan et au Liban pour faire sécher les plantes, séparer et compresser la résine.
 En Afghanistan, on peut également presser la garda (nom local de la résine non pressée) à la main. Sinon, celle-ci est versée dans un grand mortier sous lequel est allumé un feu. Lorsqu'elle est suffisamment chaude, une lourde pierre est actionnée afin de presser la résine. Le produit obtenu, appelé charas, est de couleur vert foncé à noir, très mou et très odorant.
 Dans la région de l'Himalaya, le haschich s'appelle également charas, mais l'influence hindoue fait que l'on ne coupe pas les plantes (le cannabis est sacré dans l'hindouisme). La résine est récoltée en frottant les sommités fleuries avec les mains. Au bout d'un certain temps, la résine s'accumule sur les paumes et les doigts. Celle-ci est alors grattée, et forme le charas de l'Himalaya. Comme pour la résine tamisée, le charas fabriqué de cette façon nécessite une période de bonification avant de pouvoir révéler toute sa palette de saveurs et d'effets.
 Chaque région possède ses substances de coupe spécifiques. À noter que la présence de tels produits n'est pas systématique, et c'est généralement le haschich destiné à l'exportation qui est frelaté.
